--- a/src/report/xlsx/KNHCustomerExcel.xlsx
+++ b/src/report/xlsx/KNHCustomerExcel.xlsx
@@ -370,23 +370,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:N2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:N2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="14">
-    <x:tableColumn id="1" name="No_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="Name_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="Address_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="City_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="PostCode_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="PhoneNo_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Salesperson_Code_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="Balance_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="SalesLCY_Cust" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="Customer_No_CL" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="Customer_Name_CL" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="Posting_Date_CL" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="13" name="Document_Date_CL" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="14" name="Document_Type_CL" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:P2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:P2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="16">
+    <x:tableColumn id="1" name="No_" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="Cust_Name" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="Cust_Address" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="Cust_City" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="Cust_PostCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="Cust_PhoneNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="Cust_SalespersonCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="Cust_Balance" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="Cust_CurrencyCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="10" name="Cust_LanguageCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="11" name="CLE_PostingDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="12" name="CLE_DocumentDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="13" name="CLE_DocumentType" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="14" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="15" name="Global_Dimension_1_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="16" name="Global_Dimension_2_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -770,46 +772,52 @@
   <x:sheetData>
     <x:row>
       <x:c r="A1" t="str">
-        <x:v>No_Cust</x:v>
+        <x:v>No_</x:v>
       </x:c>
       <x:c r="B1" t="str">
-        <x:v>Name_Cust</x:v>
+        <x:v>Cust_Name</x:v>
       </x:c>
       <x:c r="C1" t="str">
-        <x:v>Address_Cust</x:v>
+        <x:v>Cust_Address</x:v>
       </x:c>
       <x:c r="D1" t="str">
-        <x:v>City_Cust</x:v>
+        <x:v>Cust_City</x:v>
       </x:c>
       <x:c r="E1" t="str">
-        <x:v>PostCode_Cust</x:v>
+        <x:v>Cust_PostCode</x:v>
       </x:c>
       <x:c r="F1" t="str">
-        <x:v>PhoneNo_Cust</x:v>
+        <x:v>Cust_PhoneNo</x:v>
       </x:c>
       <x:c r="G1" t="str">
-        <x:v>Salesperson_Code_Cust</x:v>
+        <x:v>Cust_SalespersonCode</x:v>
       </x:c>
       <x:c r="H1" t="str">
-        <x:v>Balance_Cust</x:v>
+        <x:v>Cust_Balance</x:v>
       </x:c>
       <x:c r="I1" t="str">
-        <x:v>SalesLCY_Cust</x:v>
+        <x:v>Cust_CurrencyCode</x:v>
       </x:c>
       <x:c r="J1" t="str">
-        <x:v>Customer_No_CL</x:v>
+        <x:v>Cust_LanguageCode</x:v>
       </x:c>
       <x:c r="K1" t="str">
-        <x:v>Customer_Name_CL</x:v>
+        <x:v>CLE_PostingDate</x:v>
       </x:c>
       <x:c r="L1" t="str">
-        <x:v>Posting_Date_CL</x:v>
+        <x:v>CLE_DocumentDate</x:v>
       </x:c>
       <x:c r="M1" t="str">
-        <x:v>Document_Date_CL</x:v>
+        <x:v>CLE_DocumentType</x:v>
       </x:c>
       <x:c r="N1" t="str">
-        <x:v>Document_Type_CL</x:v>
+        <x:v>Amount</x:v>
+      </x:c>
+      <x:c r="O1" t="str">
+        <x:v>Global_Dimension_1_Code</x:v>
+      </x:c>
+      <x:c r="P1" t="str">
+        <x:v>Global_Dimension_2_Code</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -837,22 +845,28 @@
       <x:c r="H2" s="2" t="n">
         <x:v>0.0</x:v>
       </x:c>
-      <x:c r="I2" s="2" t="n">
-        <x:v>0.0</x:v>
+      <x:c r="I2" t="str">
+        <x:v/>
       </x:c>
       <x:c r="J2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="K2" t="str">
-        <x:v/>
+      <x:c r="K2" s="3">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L2" s="3">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N2" t="str">
+      <x:c r="M2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="N2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="O2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="P2" t="str">
         <x:v/>
       </x:c>
     </x:row>
